--- a/biology/Médecine/Rose_Marie_Bentley/Rose_Marie_Bentley.xlsx
+++ b/biology/Médecine/Rose_Marie_Bentley/Rose_Marie_Bentley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rose Marie Bentley, née en 1919 et morte en 2017 est une femme américaine atteinte d'une malformation congénitale très rare appelée situs inversus. 
-En 2018, alors qu'elle avait fait don de son corps à la science, des étudiants en médecine de l'université de Portland aux États-Unis ont fait une découverte étonnante. En effet, ses organes digestifs étaient inversés par rapport à la constitution normale du corps humain. Selon Cameron Walker, professeur d'anatomie à l'université de la santé et des sciences, il s'agit d'un cas sur 50 millions[1],[2].
+En 2018, alors qu'elle avait fait don de son corps à la science, des étudiants en médecine de l'université de Portland aux États-Unis ont fait une découverte étonnante. En effet, ses organes digestifs étaient inversés par rapport à la constitution normale du corps humain. Selon Cameron Walker, professeur d'anatomie à l'université de la santé et des sciences, il s'agit d'un cas sur 50 millions,.
 </t>
         </is>
       </c>
